--- a/Financial Services/Discover Financial Services.xlsx
+++ b/Financial Services/Discover Financial Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716955D1-0DD9-764A-B7DF-60846C099F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1007B1-6416-D845-BF2A-506AACB6AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28160" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,12 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2367,13 +2367,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>121.1716</v>
+    <v>119.91</v>
     <v>87.644000000000005</v>
-    <v>1.4236</v>
-    <v>0.34</v>
-    <v>3.2329999999999998E-3</v>
-    <v>1.68</v>
-    <v>1.5921000000000001E-2</v>
+    <v>1.4259999999999999</v>
+    <v>0.32</v>
+    <v>3.176E-3</v>
+    <v>0.43</v>
+    <v>4.2550000000000001E-3</v>
     <v>USD</v>
     <v>Discover Financial Services is a digital banking and payment services company. The Company is a bank holding company, as well as a financial holding company. The Company operates through two segments: Digital Banking and Payment Services. Its Digital Banking segment includes consumer banking and lending products, specifically Discover-branded credit cards issued to individuals on the Discover Network and other consumer banking products and services, including private student loans, personal loans, home loans and deposit products. Its Payment Services segment includes PULSE, Diners Club and its Network Partners business, which provides payment transaction processing and settlement services on the Discover Global Network. Its private student loans are primarily available to students attending eligible non-profit undergraduate and graduate schools. It also offers parent loans and certain post-graduate loans, including consolidation, bar study and residency loans.</v>
     <v>20200</v>
@@ -2381,25 +2381,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2500 Lake Cook Rd, RIVERWOODS, IL, 60015 US</v>
-    <v>106.57</v>
+    <v>101.4109</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45037.970426469532</v>
+    <v>45068.895585207814</v>
     <v>0</v>
-    <v>103.33</v>
-    <v>27118640000</v>
+    <v>100.29</v>
+    <v>25663782760</v>
     <v>DISCOVER FINANCIAL SERVICES</v>
     <v>DISCOVER FINANCIAL SERVICES</v>
-    <v>104.87</v>
-    <v>7.1047000000000002</v>
-    <v>105.18</v>
-    <v>105.52</v>
-    <v>107.2</v>
-    <v>259360600</v>
+    <v>100.98</v>
+    <v>6.8048000000000002</v>
+    <v>100.74</v>
+    <v>101.06</v>
+    <v>101.49</v>
+    <v>253946000</v>
     <v>DFS</v>
     <v>DISCOVER FINANCIAL SERVICES (XNYS:DFS)</v>
-    <v>2275676</v>
-    <v>2229054</v>
+    <v>1719465</v>
+    <v>2012739</v>
     <v>1960</v>
   </rv>
   <rv s="2">
@@ -2564,9 +2564,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2987,10 +2987,10 @@
   <dimension ref="A1:AD118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W81" sqref="W81"/>
+      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4070,9 +4070,9 @@
         <f>U28/U54</f>
         <v>3.3366760871547087E-2</v>
       </c>
-      <c r="AC13" s="20" t="e">
+      <c r="AC13" s="20">
         <f>U22/(U72+U56+U61)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="21">
         <f>U67/U72</f>
@@ -4291,15 +4291,15 @@
       </c>
       <c r="AB16" s="30">
         <f>AC101/U3</f>
-        <v>2.0333388318212493</v>
+        <v>1.9242545370023243</v>
       </c>
       <c r="AC16" s="30">
         <f>AC101/U28</f>
-        <v>6.1745537340619308</v>
+        <v>5.8433020856102003</v>
       </c>
       <c r="AD16" s="31">
         <f>AC101/U106</f>
-        <v>3.7981288515406164</v>
+        <v>3.5943673333333335</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -4712,8 +4712,8 @@
       <c r="T22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U22" s="10" t="s">
-        <v>92</v>
+      <c r="U22" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8734,10 +8734,10 @@
       <c r="U83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB83" s="59" t="s">
+      <c r="AB83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AC83" s="60"/>
+      <c r="AC83" s="62"/>
     </row>
     <row r="84" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8803,10 +8803,10 @@
       <c r="U84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB84" s="61" t="s">
+      <c r="AB84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AC84" s="62"/>
+      <c r="AC84" s="64"/>
     </row>
     <row r="85" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9468,10 +9468,10 @@
       <c r="U93" s="1">
         <v>-20188000000</v>
       </c>
-      <c r="AB93" s="61" t="s">
+      <c r="AB93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AC93" s="62"/>
+      <c r="AC93" s="64"/>
     </row>
     <row r="94" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="AC95" s="38" cm="1">
         <f t="array" ref="AC95">_FV(A1,"Beta")</f>
-        <v>1.4236</v>
+        <v>1.4259999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="AC97" s="36">
         <f>(AC94)+((AC95)*(AC96-AC94))</f>
-        <v>0.10223598</v>
+        <v>0.10233929999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9823,10 +9823,10 @@
       <c r="U98" s="1">
         <v>-703000000</v>
       </c>
-      <c r="AB98" s="61" t="s">
+      <c r="AB98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AC98" s="62"/>
+      <c r="AC98" s="64"/>
     </row>
     <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="AC100" s="34">
         <f>AC99/AC103</f>
-        <v>0.42849941540482056</v>
+        <v>0.44205265629321594</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="AC101" s="39" cm="1">
         <f t="array" ref="AC101">_FV(A1,"Market cap",TRUE)</f>
-        <v>27118640000</v>
+        <v>25663782760</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="AC102" s="34">
         <f>AC101/AC103</f>
-        <v>0.57150058459517938</v>
+        <v>0.55794734370678412</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="AC103" s="40">
         <f>AC99+AC101</f>
-        <v>47451640000</v>
+        <v>45996782760</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10252,10 +10252,10 @@
       <c r="U104" s="11">
         <v>8897000000</v>
       </c>
-      <c r="AB104" s="61" t="s">
+      <c r="AB104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AC104" s="62"/>
+      <c r="AC104" s="64"/>
     </row>
     <row r="105" spans="1:29" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="AC105" s="26">
         <f>(AC100*AC92)+(AC102*AC97)</f>
-        <v>8.8490537162524793E-2</v>
+        <v>8.8113422200270797E-2</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10475,7 +10475,7 @@
       <c r="Y107" s="42"/>
       <c r="Z107" s="45">
         <f>Z106*(1+AC107)/(AC108-AC107)</f>
-        <v>142678410451.08658</v>
+        <v>143530941679.72101</v>
       </c>
       <c r="AA107" s="46" t="s">
         <v>148</v>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="Z108" s="45">
         <f>Z107+Z106</f>
-        <v>151516194764.29114</v>
+        <v>152368725992.92557</v>
       </c>
       <c r="AA108" s="46" t="s">
         <v>144</v>
@@ -10516,14 +10516,14 @@
       </c>
       <c r="AC108" s="50">
         <f>AC105</f>
-        <v>8.8490537162524793E-2</v>
+        <v>8.8113422200270797E-2</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="V109" s="63" t="s">
+      <c r="V109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="W109" s="64"/>
+      <c r="W109" s="60"/>
     </row>
     <row r="110" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="V110" s="51" t="s">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="W110" s="39">
         <f>NPV(AC108,V108,W108,X108,Y108,Z108)</f>
-        <v>124893440002.79373</v>
+        <v>125646133236.99548</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="W113" s="39">
         <f>W110+W111-W112</f>
-        <v>132653440002.79373</v>
+        <v>133406133236.99548</v>
       </c>
     </row>
     <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="W114" s="52" cm="1">
         <f t="array" ref="W114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>259360600</v>
+        <v>253946000</v>
       </c>
     </row>
     <row r="115" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="W115" s="54">
         <f>W113/W114</f>
-        <v>511.46334486731496</v>
+        <v>525.33268189692092</v>
       </c>
     </row>
     <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="W116" s="55" cm="1">
         <f t="array" ref="W116">_FV(A1,"Price")</f>
-        <v>105.52</v>
+        <v>101.06</v>
       </c>
     </row>
     <row r="117" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="W117" s="57">
         <f>W115/W116-1</f>
-        <v>3.8470749134506725</v>
+        <v>4.198225627319621</v>
       </c>
     </row>
     <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
